--- a/artfynd/A 61231-2025 artfynd.xlsx
+++ b/artfynd/A 61231-2025 artfynd.xlsx
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130803168</v>
+        <v>130803173</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>465993</v>
+        <v>466010</v>
       </c>
       <c r="R5" t="n">
-        <v>7072380</v>
+        <v>7072292</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1130,10 +1130,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130803173</v>
+        <v>130803168</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466010</v>
+        <v>465993</v>
       </c>
       <c r="R6" t="n">
-        <v>7072292</v>
+        <v>7072380</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1232,10 +1232,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803176</v>
+        <v>130803170</v>
       </c>
       <c r="B7" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,19 +1243,23 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1263,10 +1267,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466028</v>
+        <v>465964</v>
       </c>
       <c r="R7" t="n">
-        <v>7072541</v>
+        <v>7072357</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1299,6 +1303,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1325,10 +1334,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803170</v>
+        <v>130803176</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,23 +1345,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1360,10 +1365,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>465964</v>
+        <v>466028</v>
       </c>
       <c r="R8" t="n">
-        <v>7072357</v>
+        <v>7072541</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1396,11 +1401,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1430,7 +1430,7 @@
         <v>130803180</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>130803181</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>130803175</v>
       </c>
       <c r="B11" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>130803178</v>
       </c>
       <c r="B12" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1821,32 +1821,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130803166</v>
+        <v>130803165</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>92530</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466057</v>
+        <v>466019</v>
       </c>
       <c r="R13" t="n">
-        <v>7072377</v>
+        <v>7072412</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1892,11 +1892,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1926,7 +1921,7 @@
         <v>130803167</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2025,32 +2020,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130803165</v>
+        <v>130803166</v>
       </c>
       <c r="B15" t="n">
-        <v>92526</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2060,10 +2055,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466019</v>
+        <v>466057</v>
       </c>
       <c r="R15" t="n">
-        <v>7072412</v>
+        <v>7072377</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2096,6 +2091,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2125,7 +2125,7 @@
         <v>130803172</v>
       </c>
       <c r="B16" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>130803179</v>
       </c>
       <c r="B17" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2317,10 +2317,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803177</v>
+        <v>130803169</v>
       </c>
       <c r="B18" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2328,19 +2328,23 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2348,10 +2352,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>465951</v>
+        <v>465965</v>
       </c>
       <c r="R18" t="n">
-        <v>7072435</v>
+        <v>7072357</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2384,6 +2388,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2410,10 +2419,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803169</v>
+        <v>130803177</v>
       </c>
       <c r="B19" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2421,23 +2430,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2445,10 +2450,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>465965</v>
+        <v>465951</v>
       </c>
       <c r="R19" t="n">
-        <v>7072357</v>
+        <v>7072435</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2481,11 +2486,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 61231-2025 artfynd.xlsx
+++ b/artfynd/A 61231-2025 artfynd.xlsx
@@ -1232,10 +1232,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803170</v>
+        <v>130803176</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,23 +1243,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1267,10 +1263,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>465964</v>
+        <v>466028</v>
       </c>
       <c r="R7" t="n">
-        <v>7072357</v>
+        <v>7072541</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1303,11 +1299,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1334,10 +1325,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803176</v>
+        <v>130803170</v>
       </c>
       <c r="B8" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1345,19 +1336,23 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1365,10 +1360,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466028</v>
+        <v>465964</v>
       </c>
       <c r="R8" t="n">
-        <v>7072541</v>
+        <v>7072357</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1401,6 +1396,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 61231-2025 artfynd.xlsx
+++ b/artfynd/A 61231-2025 artfynd.xlsx
@@ -1028,7 +1028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130803173</v>
+        <v>130803168</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466010</v>
+        <v>465993</v>
       </c>
       <c r="R5" t="n">
-        <v>7072292</v>
+        <v>7072380</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1130,7 +1130,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130803168</v>
+        <v>130803173</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>465993</v>
+        <v>466010</v>
       </c>
       <c r="R6" t="n">
-        <v>7072380</v>
+        <v>7072292</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1232,10 +1232,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803176</v>
+        <v>130803170</v>
       </c>
       <c r="B7" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,19 +1243,23 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1263,10 +1267,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466028</v>
+        <v>465964</v>
       </c>
       <c r="R7" t="n">
-        <v>7072541</v>
+        <v>7072357</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1299,6 +1303,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1325,10 +1334,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803170</v>
+        <v>130803176</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,23 +1345,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1360,10 +1365,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>465964</v>
+        <v>466028</v>
       </c>
       <c r="R8" t="n">
-        <v>7072357</v>
+        <v>7072541</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1396,11 +1401,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1821,32 +1821,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130803165</v>
+        <v>130803166</v>
       </c>
       <c r="B13" t="n">
-        <v>92530</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466019</v>
+        <v>466057</v>
       </c>
       <c r="R13" t="n">
-        <v>7072412</v>
+        <v>7072377</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1892,6 +1892,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2020,32 +2025,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130803166</v>
+        <v>130803165</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>92530</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2055,10 +2060,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466057</v>
+        <v>466019</v>
       </c>
       <c r="R15" t="n">
-        <v>7072377</v>
+        <v>7072412</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2091,11 +2096,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2317,10 +2317,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803169</v>
+        <v>130803177</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2328,23 +2328,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2352,10 +2348,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>465965</v>
+        <v>465951</v>
       </c>
       <c r="R18" t="n">
-        <v>7072357</v>
+        <v>7072435</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2388,11 +2384,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2419,10 +2410,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803177</v>
+        <v>130803169</v>
       </c>
       <c r="B19" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2430,19 +2421,23 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2450,10 +2445,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>465951</v>
+        <v>465965</v>
       </c>
       <c r="R19" t="n">
-        <v>7072435</v>
+        <v>7072357</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2486,6 +2481,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 61231-2025 artfynd.xlsx
+++ b/artfynd/A 61231-2025 artfynd.xlsx
@@ -1232,10 +1232,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803170</v>
+        <v>130803176</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,23 +1243,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1267,10 +1263,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>465964</v>
+        <v>466028</v>
       </c>
       <c r="R7" t="n">
-        <v>7072357</v>
+        <v>7072541</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1303,11 +1299,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1334,10 +1325,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803176</v>
+        <v>130803170</v>
       </c>
       <c r="B8" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1345,19 +1336,23 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1365,10 +1360,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466028</v>
+        <v>465964</v>
       </c>
       <c r="R8" t="n">
-        <v>7072541</v>
+        <v>7072357</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1401,6 +1396,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1821,32 +1821,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130803166</v>
+        <v>130803165</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>92530</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466057</v>
+        <v>466019</v>
       </c>
       <c r="R13" t="n">
-        <v>7072377</v>
+        <v>7072412</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1892,11 +1892,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1923,7 +1918,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130803167</v>
+        <v>130803166</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -1958,10 +1953,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>465963</v>
+        <v>466057</v>
       </c>
       <c r="R14" t="n">
-        <v>7072446</v>
+        <v>7072377</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1998,7 +1993,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2025,32 +2020,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130803165</v>
+        <v>130803167</v>
       </c>
       <c r="B15" t="n">
-        <v>92530</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2060,10 +2055,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466019</v>
+        <v>465963</v>
       </c>
       <c r="R15" t="n">
-        <v>7072412</v>
+        <v>7072446</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2096,6 +2091,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2317,10 +2317,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803177</v>
+        <v>130803169</v>
       </c>
       <c r="B18" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2328,19 +2328,23 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2348,10 +2352,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>465951</v>
+        <v>465965</v>
       </c>
       <c r="R18" t="n">
-        <v>7072435</v>
+        <v>7072357</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2384,6 +2388,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2410,10 +2419,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803169</v>
+        <v>130803177</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2421,23 +2430,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2445,10 +2450,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>465965</v>
+        <v>465951</v>
       </c>
       <c r="R19" t="n">
-        <v>7072357</v>
+        <v>7072435</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2481,11 +2486,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 61231-2025 artfynd.xlsx
+++ b/artfynd/A 61231-2025 artfynd.xlsx
@@ -1028,7 +1028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130803168</v>
+        <v>130803173</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>465993</v>
+        <v>466010</v>
       </c>
       <c r="R5" t="n">
-        <v>7072380</v>
+        <v>7072292</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1130,7 +1130,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130803173</v>
+        <v>130803168</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466010</v>
+        <v>465993</v>
       </c>
       <c r="R6" t="n">
-        <v>7072292</v>
+        <v>7072380</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1232,10 +1232,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803176</v>
+        <v>130803170</v>
       </c>
       <c r="B7" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,19 +1243,23 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1263,10 +1267,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466028</v>
+        <v>465964</v>
       </c>
       <c r="R7" t="n">
-        <v>7072541</v>
+        <v>7072357</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1299,6 +1303,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1325,10 +1334,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803170</v>
+        <v>130803176</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,23 +1345,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1360,10 +1365,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>465964</v>
+        <v>466028</v>
       </c>
       <c r="R8" t="n">
-        <v>7072357</v>
+        <v>7072541</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1396,11 +1401,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1821,32 +1821,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130803165</v>
+        <v>130803166</v>
       </c>
       <c r="B13" t="n">
-        <v>92530</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466019</v>
+        <v>466057</v>
       </c>
       <c r="R13" t="n">
-        <v>7072412</v>
+        <v>7072377</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1892,6 +1892,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1918,32 +1923,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130803166</v>
+        <v>130803165</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>92530</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1953,10 +1958,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466057</v>
+        <v>466019</v>
       </c>
       <c r="R14" t="n">
-        <v>7072377</v>
+        <v>7072412</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1989,11 +1994,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2317,10 +2317,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803169</v>
+        <v>130803177</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2328,23 +2328,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2352,10 +2348,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>465965</v>
+        <v>465951</v>
       </c>
       <c r="R18" t="n">
-        <v>7072357</v>
+        <v>7072435</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2388,11 +2384,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2419,10 +2410,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803177</v>
+        <v>130803169</v>
       </c>
       <c r="B19" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2430,19 +2421,23 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2450,10 +2445,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>465951</v>
+        <v>465965</v>
       </c>
       <c r="R19" t="n">
-        <v>7072435</v>
+        <v>7072357</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2486,6 +2481,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 61231-2025 artfynd.xlsx
+++ b/artfynd/A 61231-2025 artfynd.xlsx
@@ -1028,7 +1028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130803173</v>
+        <v>130803168</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466010</v>
+        <v>465993</v>
       </c>
       <c r="R5" t="n">
-        <v>7072292</v>
+        <v>7072380</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1130,7 +1130,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130803168</v>
+        <v>130803173</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>465993</v>
+        <v>466010</v>
       </c>
       <c r="R6" t="n">
-        <v>7072380</v>
+        <v>7072292</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1232,10 +1232,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803170</v>
+        <v>130803176</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,23 +1243,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1267,10 +1263,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>465964</v>
+        <v>466028</v>
       </c>
       <c r="R7" t="n">
-        <v>7072357</v>
+        <v>7072541</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1303,11 +1299,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1334,10 +1325,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803176</v>
+        <v>130803170</v>
       </c>
       <c r="B8" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1345,19 +1336,23 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1365,10 +1360,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466028</v>
+        <v>465964</v>
       </c>
       <c r="R8" t="n">
-        <v>7072541</v>
+        <v>7072357</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1401,6 +1396,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1821,32 +1821,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130803166</v>
+        <v>130803165</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>92530</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466057</v>
+        <v>466019</v>
       </c>
       <c r="R13" t="n">
-        <v>7072377</v>
+        <v>7072412</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1892,11 +1892,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1923,32 +1918,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130803165</v>
+        <v>130803166</v>
       </c>
       <c r="B14" t="n">
-        <v>92530</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1958,10 +1953,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466019</v>
+        <v>466057</v>
       </c>
       <c r="R14" t="n">
-        <v>7072412</v>
+        <v>7072377</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1994,6 +1989,11 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 61231-2025 artfynd.xlsx
+++ b/artfynd/A 61231-2025 artfynd.xlsx
@@ -2317,10 +2317,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803177</v>
+        <v>130803169</v>
       </c>
       <c r="B18" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2328,19 +2328,23 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2348,10 +2352,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>465951</v>
+        <v>465965</v>
       </c>
       <c r="R18" t="n">
-        <v>7072435</v>
+        <v>7072357</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2384,6 +2388,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2410,10 +2419,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803169</v>
+        <v>130803177</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2421,23 +2430,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2445,10 +2450,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>465965</v>
+        <v>465951</v>
       </c>
       <c r="R19" t="n">
-        <v>7072357</v>
+        <v>7072435</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2481,11 +2486,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 61231-2025 artfynd.xlsx
+++ b/artfynd/A 61231-2025 artfynd.xlsx
@@ -1232,10 +1232,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130803176</v>
+        <v>130803170</v>
       </c>
       <c r="B7" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1243,19 +1243,23 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1263,10 +1267,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466028</v>
+        <v>465964</v>
       </c>
       <c r="R7" t="n">
-        <v>7072541</v>
+        <v>7072357</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1299,6 +1303,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1325,10 +1334,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130803170</v>
+        <v>130803176</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,23 +1345,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1360,10 +1365,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>465964</v>
+        <v>466028</v>
       </c>
       <c r="R8" t="n">
-        <v>7072357</v>
+        <v>7072541</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1396,11 +1401,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -2317,10 +2317,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130803169</v>
+        <v>130803177</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2328,23 +2328,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2352,10 +2348,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>465965</v>
+        <v>465951</v>
       </c>
       <c r="R18" t="n">
-        <v>7072357</v>
+        <v>7072435</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2388,11 +2384,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2419,10 +2410,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130803177</v>
+        <v>130803169</v>
       </c>
       <c r="B19" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2430,19 +2421,23 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2450,10 +2445,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>465951</v>
+        <v>465965</v>
       </c>
       <c r="R19" t="n">
-        <v>7072435</v>
+        <v>7072357</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2486,6 +2481,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
